--- a/Test1.xlsx
+++ b/Test1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopherkoo/Desktop/Email-Manager/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D37E424D-6F0C-CB41-87FE-D04831CDAB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF17179D-B429-C84E-807A-30FAD652E749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1423,15 +1423,15 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1654,7 +1654,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A3" sqref="A3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1666,7 +1666,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="36"/>
@@ -1696,14 +1696,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="38" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
       <c r="D2" s="36"/>
       <c r="E2" s="37"/>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="39" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="37"/>
@@ -2004,7 +2004,7 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
       <c r="D12" s="36"/>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
-      <c r="B18" s="35"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="26"/>
@@ -2257,7 +2257,7 @@
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="35"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
       <c r="E21" s="11"/>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
-      <c r="B23" s="38"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="11"/>
@@ -2564,7 +2564,7 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="35"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
       <c r="D32" s="36"/>
@@ -2621,7 +2621,7 @@
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
-      <c r="B34" s="35"/>
+      <c r="B34" s="40"/>
       <c r="C34" s="36"/>
       <c r="D34" s="37"/>
       <c r="E34" s="28"/>
@@ -2985,7 +2985,7 @@
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
-      <c r="B47" s="35"/>
+      <c r="B47" s="40"/>
       <c r="C47" s="36"/>
       <c r="D47" s="37"/>
       <c r="E47" s="28"/>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
-      <c r="B51" s="35"/>
+      <c r="B51" s="40"/>
       <c r="C51" s="36"/>
       <c r="D51" s="37"/>
       <c r="E51" s="28"/>
@@ -3208,7 +3208,7 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A55" s="35"/>
+      <c r="A55" s="40"/>
       <c r="B55" s="36"/>
       <c r="C55" s="36"/>
       <c r="D55" s="36"/>
@@ -3293,7 +3293,7 @@
     </row>
     <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
-      <c r="B58" s="35"/>
+      <c r="B58" s="40"/>
       <c r="C58" s="36"/>
       <c r="D58" s="37"/>
       <c r="E58" s="28"/>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
-      <c r="B60" s="35"/>
+      <c r="B60" s="40"/>
       <c r="C60" s="36"/>
       <c r="D60" s="37"/>
       <c r="E60" s="26"/>
@@ -3376,7 +3376,7 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A61" s="35"/>
+      <c r="A61" s="40"/>
       <c r="B61" s="36"/>
       <c r="C61" s="36"/>
       <c r="D61" s="36"/>
@@ -29697,11 +29697,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B58:D58"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="A61:E61"/>
@@ -29712,6 +29707,11 @@
     <mergeCell ref="B47:D47"/>
     <mergeCell ref="B51:D51"/>
     <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="B18:D18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E4" r:id="rId1" xr:uid="{0E95F85F-5BCC-B645-B3A4-2F5652CEBB92}"/>
